--- a/public/preprocessing/@indahmustofa83.xlsx
+++ b/public/preprocessing/@indahmustofa83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15748</v>
+        <v>26617</v>
       </c>
       <c r="C2" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rt kurang lagi nih untuk nembus  siapa yang mau menggenapi ditunggu ya</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['rt', 'kurang', 'lagi', 'nih', 'untuk', 'nembus', 'siapa', 'yang', 'mau', 'menggenapi', 'ditunggu', 'ya']</t>
+          <t>['yes']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['nembus', 'menggenapi', 'ditunggu']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['nembus', 'genap', 'tunggu']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15749</v>
+        <v>26618</v>
       </c>
       <c r="C3" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>rt dirs bukan sembarang cicak tapi jenis cicak yang membawa penyakit pada masa dulu itu</t>
+          <t>rt bantu retweet akun saya dong biar rame nambah temen yang retweet nanti saya follback ngih</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'bukan', 'sembarang', 'cicak', 'tapi', 'jenis', 'cicak', 'yang', 'membawa', 'penyakit', 'pada', 'masa', 'dulu', 'itu']</t>
+          <t>['rt', 'bantu', 'retweet', 'akun', 'saya', 'dong', 'biar', 'rame', 'nambah', 'temen', 'yang', 'retweet', 'nanti', 'saya', 'follback', 'ngih']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'bantu', 'retweet', 'akun', 'saya', 'dong', 'biar', 'ramai', 'menambah', 'teman', 'yang', 'retweet', 'nanti', 'saya', 'ikuti', 'ngih']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['dirs', 'sembarang', 'cicak', 'jenis', 'cicak', 'membawa', 'penyakit']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['dirs', 'sembarang', 'cicak', 'jenis', 'cicak', 'bawa', 'sakit']</t>
+          <t>['bantu', 'retweet', 'akun', 'ramai', 'menambah', 'teman', 'retweet', 'ikuti', 'ngih']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['bantu', 'retweet', 'akun', 'ramai', 'tambah', 'teman', 'retweet', 'ikut', 'ngih']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15750</v>
+        <v>26619</v>
       </c>
       <c r="C4" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt hudhi oke stelah menimbang saya akan buat apresiasi ke umkm silakan reply twit ini jika ingin umkm kalian say</t>
+          <t>rt kurang lagi nih untuk nembus  siapa yang mau menggenapi ditunggu ya</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'hudhi', 'oke', 'stelah', 'menimbang', 'saya', 'akan', 'buat', 'apresiasi', 'ke', 'umkm', 'silakan', 'reply', 'twit', 'ini', 'jika', 'ingin', 'umkm', 'kalian', 'say']</t>
+          <t>['rt', 'kurang', 'lagi', 'nih', 'untuk', 'nembus', 'siapa', 'yang', 'mau', 'menggenapi', 'ditunggu', 'ya']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'kurang', 'lagi', 'nih', 'untuk', 'nembus', 'siapa', 'yang', 'mau', 'menggenapi', 'ditunggu', 'ya']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['hudhi', 'oke', 'stelah', 'menimbang', 'apresiasi', 'umkm', 'silakan', 'reply', 'twit', 'umkm', 'say']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['hudhi', 'oke', 'stelah', 'timbang', 'apresiasi', 'umkm', 'sila', 'reply', 'twit', 'umkm', 'say']</t>
+          <t>['nembus', 'menggenapi', 'ditunggu']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['nembus', 'genap', 'tunggu']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15751</v>
+        <v>26620</v>
       </c>
       <c r="C5" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt ajir sdh saatnya mengembalikan corak beragama yg menghargai keberagaman tafs</t>
+          <t>rt dirs bukan sembarang cicak tapi jenis cicak yang membawa penyakit pada masa dulu itu</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'ajir', 'sdh', 'saatnya', 'mengembalikan', 'corak', 'beragama', 'yg', 'menghargai', 'keberagaman', 'tafs']</t>
+          <t>['rt', 'dirs', 'bukan', 'sembarang', 'cicak', 'tapi', 'jenis', 'cicak', 'yang', 'membawa', 'penyakit', 'pada', 'masa', 'dulu', 'itu']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'bukan', 'sembarang', 'cicak', 'tapi', 'jenis', 'cicak', 'yang', 'membawa', 'penyakit', 'pada', 'masa', 'dulu', 'itu']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ajir', 'mengembalikan', 'corak', 'beragama', 'menghargai', 'keberagaman', 'tafs']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['ajir', 'kembali', 'corak', 'agama', 'harga', 'agam', 'tafs']</t>
+          <t>['dirs', 'sembarang', 'cicak', 'jenis', 'cicak', 'membawa', 'penyakit']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['dirs', 'sembarang', 'cicak', 'jenis', 'cicak', 'bawa', 'sakit']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15752</v>
+        <v>26621</v>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>para pejabat</t>
+          <t>rt hudhi oke stelah menimbang saya akan buat apresiasi ke umkm silakan reply twit ini jika ingin umkm kalian say</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['para', 'pejabat']</t>
+          <t>['rt', 'hudhi', 'oke', 'stelah', 'menimbang', 'saya', 'akan', 'buat', 'apresiasi', 'ke', 'umkm', 'silakan', 'reply', 'twit', 'ini', 'jika', 'ingin', 'umkm', 'kalian', 'say']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'hudhi', 'oke', 'setelah', 'menimbang', 'saya', 'akan', 'buat', 'apresiasi', 'ke', 'usaha, mikro, kecil, dan, menengah', 'silakan', 'reply', 'twit', 'ini', 'jika', 'ingin', 'usaha, mikro, kecil, dan, menengah', 'kalian', 'sayang']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['pejabat']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['jabat']</t>
+          <t>['hudhi', 'oke', 'menimbang', 'apresiasi', 'usaha, mikro, kecil, dan, menengah', 'silakan', 'reply', 'twit', 'usaha, mikro, kecil, dan, menengah', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['hudhi', 'oke', 'timbang', 'apresiasi', 'usaha mikro kecil dan tengah', 'sila', 'reply', 'twit', 'usaha mikro kecil dan tengah', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15753</v>
+        <v>26622</v>
       </c>
       <c r="C7" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hudhi kapan main ke mojokerto dok</t>
+          <t>rt ajir sdh saatnya mengembalikan corak beragama yg menghargai keberagaman tafs</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['hudhi', 'kapan', 'main', 'ke', 'mojokerto', 'dok']</t>
+          <t>['rt', 'ajir', 'sdh', 'saatnya', 'mengembalikan', 'corak', 'beragama', 'yg', 'menghargai', 'keberagaman', 'tafs']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'ajir', 'sudah', 'saatnya', 'mengembalikan', 'corak', 'beragama', 'yang', 'menghargai', 'keberagaman', 'tafs']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['hudhi', 'main', 'mojokerto', 'dok']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['hudhi', 'main', 'mojokerto', 'dok']</t>
+          <t>['ajir', 'mengembalikan', 'corak', 'beragama', 'menghargai', 'keberagaman', 'tafs']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['ajir', 'kembali', 'corak', 'agama', 'harga', 'agam', 'tafs']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15754</v>
+        <v>26623</v>
       </c>
       <c r="C8" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>utriza nderek aken gus</t>
+          <t>para pejabat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['utriza', 'nderek', 'aken', 'gus']</t>
+          <t>['para', 'pejabat']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['para', 'pejabat']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['utriza', 'nderek', 'aken', 'gus']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['utriza', 'nderek', 'aken', 'gus']</t>
+          <t>['pejabat']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['jabat']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15755</v>
+        <v>26624</v>
       </c>
       <c r="C9" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt dirs ujian buat mereka yg punya ortu hebat bisakah sehebat atau lebih hebat lagi dari ortumu apa prestasimu shg layak berkata</t>
+          <t>hudhi kapan main ke mojokerto dok</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'ujian', 'buat', 'mereka', 'yg', 'punya', 'ortu', 'hebat', 'bisakah', 'sehebat', 'atau', 'lebih', 'hebat', 'lagi', 'dari', 'ortumu', 'apa', 'prestasimu', 'shg', 'layak', 'berkata']</t>
+          <t>['hudhi', 'kapan', 'main', 'ke', 'mojokerto', 'dok']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+          <t>['hudhi', 'kapan', 'main', 'ke', 'mojokerto', 'dok']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['dirs', 'ujian', 'ortu', 'hebat', 'sehebat', 'hebat', 'ortumu', 'prestasimu', 'shg', 'layak']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['dirs', 'uji', 'ortu', 'hebat', 'hebat', 'hebat', 'ortumu', 'prestasi', 'shg', 'layak']</t>
+          <t>['hudhi', 'main', 'mojokerto', 'dok']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['hudhi', 'main', 'mojokerto', 'dok']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15756</v>
+        <v>26625</v>
       </c>
       <c r="C10" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>dirs buzzer polos tp plonga plungu</t>
+          <t>utriza nderek aken gus</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['dirs', 'buzzer', 'polos', 'tp', 'plonga', 'plungu']</t>
+          <t>['utriza', 'nderek', 'aken', 'gus']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['utriza', 'nderek', 'aken', 'gus']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['dirs', 'buzzer', 'polos', 'tp', 'plonga', 'plungu']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['dirs', 'buzzer', 'polos', 'tp', 'plonga', 'plungu']</t>
+          <t>['utriza', 'nderek', 'aken', 'gus']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['utriza', 'nderek', 'aken', 'gus']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15757</v>
+        <v>26626</v>
       </c>
       <c r="C11" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt lumayan banyak yang request pembahasan tentang nyeri dada nyeri dada lumayan sering lho diperkirakan selama hidup </t>
+          <t>rt dirs ujian buat mereka yg punya ortu hebat bisakah sehebat atau lebih hebat lagi dari ortumu apa prestasimu shg layak berkata</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'lumayan', 'banyak', 'yang', 'request', 'pembahasan', 'tentang', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'sering', 'lho', 'diperkirakan', 'selama', 'hidup']</t>
+          <t>['rt', 'dirs', 'ujian', 'buat', 'mereka', 'yg', 'punya', 'ortu', 'hebat', 'bisakah', 'sehebat', 'atau', 'lebih', 'hebat', 'lagi', 'dari', 'ortumu', 'apa', 'prestasimu', 'shg', 'layak', 'berkata']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'ujian', 'buat', 'mereka', 'yang', 'punya', 'orang, tua', 'hebat', 'bisakah', 'sehebat', 'atau', 'lebih', 'hebat', 'lagi', 'dari', 'ortumu', 'apa', 'prestasimu', 'sehingga', 'layak', 'berkata']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['lumayan', 'request', 'pembahasan', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'lho', 'hidup']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['lumayan', 'request', 'bahas', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'lho', 'hidup']</t>
+          <t>['dirs', 'ujian', 'orang, tua', 'hebat', 'sehebat', 'hebat', 'ortumu', 'prestasimu', 'layak']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['dirs', 'uji', 'orang tua', 'hebat', 'hebat', 'hebat', 'ortumu', 'prestasi', 'layak']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15758</v>
+        <v>26627</v>
       </c>
       <c r="C12" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt dirs di medsos banyak yg bertanya bukan karena membutuhkan jawaban tapi meluapkan emosi begitupula banyak yg semangat membantah </t>
+          <t>dirs buzzer polos tp plonga plungu</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'di', 'medsos', 'banyak', 'yg', 'bertanya', 'bukan', 'karena', 'membutuhkan', 'jawaban', 'tapi', 'meluapkan', 'emosi', 'begitupula', 'banyak', 'yg', 'semangat', 'membantah']</t>
+          <t>['dirs', 'buzzer', 'polos', 'tp', 'plonga', 'plungu']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['dirs', 'buzzer', 'polos', 'tetapi', 'plonga', 'plungu']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['dirs', 'medsos', 'membutuhkan', 'meluapkan', 'emosi', 'begitupula', 'semangat', 'membantah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['dirs', 'medsos', 'butuh', 'luap', 'emosi', 'begitupula', 'semangat', 'ban']</t>
+          <t>['dirs', 'buzzer', 'polos', 'plonga', 'plungu']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['dirs', 'buzzer', 'polos', 'plonga', 'plungu']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15759</v>
+        <v>26628</v>
       </c>
       <c r="C13" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rt hudhi kebijakan yang terlambat terlihat sekarang di lebih kan karna menutupi kondisi ekonomi yang sedang ter</t>
+          <t xml:space="preserve">rt lumayan banyak yang request pembahasan tentang nyeri dada nyeri dada lumayan sering lho diperkirakan selama hidup </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rt', 'hudhi', 'kebijakan', 'yang', 'terlambat', 'terlihat', 'sekarang', 'di', 'lebih', 'kan', 'karna', 'menutupi', 'kondisi', 'ekonomi', 'yang', 'sedang', 'ter']</t>
+          <t>['rt', 'lumayan', 'banyak', 'yang', 'request', 'pembahasan', 'tentang', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'sering', 'lho', 'diperkirakan', 'selama', 'hidup']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'lumayan', 'banyak', 'yang', 'request', 'pembahasan', 'tentang', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'sering', 'lo', 'diperkirakan', 'selama', 'hidup']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['hudhi', 'kebijakan', 'terlambat', 'karna', 'menutupi', 'kondisi', 'ekonomi', 'ter']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['hudhi', 'bijak', 'lambat', 'karna', 'tutup', 'kondisi', 'ekonomi', 'ter']</t>
+          <t>['lumayan', 'request', 'pembahasan', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'lo', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['lumayan', 'request', 'bahas', 'nyeri', 'dada', 'nyeri', 'dada', 'lumayan', 'lo', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15760</v>
+        <v>26629</v>
       </c>
       <c r="C14" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hudhi angel dok kalau oknumnya bermain rapi</t>
+          <t xml:space="preserve">rt dirs di medsos banyak yg bertanya bukan karena membutuhkan jawaban tapi meluapkan emosi begitupula banyak yg semangat membantah </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['hudhi', 'angel', 'dok', 'kalau', 'oknumnya', 'bermain', 'rapi']</t>
+          <t>['rt', 'dirs', 'di', 'medsos', 'banyak', 'yg', 'bertanya', 'bukan', 'karena', 'membutuhkan', 'jawaban', 'tapi', 'meluapkan', 'emosi', 'begitupula', 'banyak', 'yg', 'semangat', 'membantah']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'di', 'media, sosial', 'banyak', 'yang', 'bertanya', 'bukan', 'karena', 'membutuhkan', 'jawaban', 'tapi', 'meluapkan', 'emosi', 'begitupula', 'banyak', 'yang', 'semangat', 'membantah']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['hudhi', 'angel', 'dok', 'oknumnya', 'bermain', 'rapi']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['hudhi', 'angel', 'dok', 'oknum', 'main', 'rapi']</t>
+          <t>['dirs', 'media, sosial', 'membutuhkan', 'meluapkan', 'emosi', 'begitupula', 'semangat', 'membantah']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['dirs', 'media sosial', 'butuh', 'luap', 'emosi', 'begitupula', 'semangat', 'ban']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15761</v>
+        <v>26630</v>
       </c>
       <c r="C15" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt kalau nanti pilpres pak berpasangan dgn satu menteri agama keren kali ya yang setuju si</t>
+          <t>rt hudhi kebijakan yang terlambat terlihat sekarang di lebih kan karna menutupi kondisi ekonomi yang sedang ter</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'nanti', 'pilpres', 'pak', 'berpasangan', 'dgn', 'satu', 'menteri', 'agama', 'keren', 'kali', 'ya', 'yang', 'setuju', 'si']</t>
+          <t>['rt', 'hudhi', 'kebijakan', 'yang', 'terlambat', 'terlihat', 'sekarang', 'di', 'lebih', 'kan', 'karna', 'menutupi', 'kondisi', 'ekonomi', 'yang', 'sedang', 'ter']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'hudhi', 'kebijakan', 'yang', 'terlambat', 'terlihat', 'sekarang', 'di', 'lebih', 'kan', 'karena', 'menutupi', 'kondisi', 'ekonomi', 'yang', 'sedang', 'ter']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['pilpres', 'berpasangan', 'menteri', 'agama', 'keren', 'kali', 'setuju']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['pilpres', 'pasang', 'menteri', 'agama', 'keren', 'kali', 'tuju']</t>
+          <t>['hudhi', 'kebijakan', 'terlambat', 'menutupi', 'kondisi', 'ekonomi', 'ter']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['hudhi', 'bijak', 'lambat', 'tutup', 'kondisi', 'ekonomi', 'ter']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15762</v>
+        <v>26631</v>
       </c>
       <c r="C16" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt gus panjenengan kok keren sih menag siap fasilitasi borobudur jadi rumah ibadah umat buddha dunia</t>
+          <t>hudhi angel dok kalau oknumnya bermain rapi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'gus', 'panjenengan', 'kok', 'keren', 'sih', 'menag', 'siap', 'fasilitasi', 'borobudur', 'jadi', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
+          <t>['hudhi', 'angel', 'dok', 'kalau', 'oknumnya', 'bermain', 'rapi']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['hudhi', 'angel', 'dok', 'kalau', 'oknumnya', 'bermain', 'rapi']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['gus', 'panjenengan', 'keren', 'menag', 'fasilitasi', 'borobudur', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['gus', 'panjenengan', 'keren', 'menag', 'fasilitas', 'borobudur', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
+          <t>['hudhi', 'angel', 'dok', 'oknumnya', 'bermain', 'rapi']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['hudhi', 'angel', 'dok', 'oknum', 'main', 'rapi']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15763</v>
+        <v>26632</v>
       </c>
       <c r="C17" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rt telah wafat tadi pagi sahabatku terbaik kh ahmad zubaidah dan selalu saya panggil cak ida</t>
+          <t>rt kalau nanti pilpres pak berpasangan dgn satu menteri agama keren kali ya yang setuju si</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['rt', 'telah', 'wafat', 'tadi', 'pagi', 'sahabatku', 'terbaik', 'kh', 'ahmad', 'zubaidah', 'dan', 'selalu', 'saya', 'panggil', 'cak', 'ida']</t>
+          <t>['rt', 'kalau', 'nanti', 'pilpres', 'pak', 'berpasangan', 'dgn', 'satu', 'menteri', 'agama', 'keren', 'kali', 'ya', 'yang', 'setuju', 'si']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'kalau', 'nanti', 'pemilihan, presiden', 'pak', 'berpasangan', 'dengan', 'satu', 'menteri', 'agama', 'keren', 'kali', 'ya', 'yang', 'setuju', 'sih']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['wafat', 'pagi', 'sahabatku', 'terbaik', 'kh', 'ahmad', 'zubaidah', 'panggil', 'cak', 'ida']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['wafat', 'pagi', 'sahabat', 'baik', 'kh', 'ahmad', 'zubaidah', 'panggil', 'cak', 'ida']</t>
+          <t>['pemilihan, presiden', 'berpasangan', 'menteri', 'agama', 'keren', 'kali', 'setuju']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pilih presiden', 'pasang', 'menteri', 'agama', 'keren', 'kali', 'tuju']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15764</v>
+        <v>26633</v>
       </c>
       <c r="C18" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hudhi gas wes doklosss gak rewel blas</t>
+          <t>rt gus panjenengan kok keren sih menag siap fasilitasi borobudur jadi rumah ibadah umat buddha dunia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['hudhi', 'gas', 'wes', 'doklosss', 'gak', 'rewel', 'blas']</t>
+          <t>['rt', 'gus', 'panjenengan', 'kok', 'keren', 'sih', 'menag', 'siap', 'fasilitasi', 'borobudur', 'jadi', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'gus', 'panjenengan', 'kok', 'keren', 'sih', 'menteri, agama', 'siap', 'fasilitasi', 'borobudur', 'jadi', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['hudhi', 'gas', 'wes', 'doklosss', 'rewel', 'blas']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['hudhi', 'gas', 'wes', 'doklosss', 'rewel', 'blas']</t>
+          <t>['gus', 'panjenengan', 'keren', 'menteri, agama', 'fasilitasi', 'borobudur', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['gus', 'panjenengan', 'keren', 'menteri agama', 'fasilitas', 'borobudur', 'rumah', 'ibadah', 'umat', 'buddha', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15765</v>
+        <v>26634</v>
       </c>
       <c r="C19" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt syair taubat yg selama ini kerap kita dengar amp kerap membuat air mata menetes saat mendengarnya diciptakan oleh </t>
+          <t>rt telah wafat tadi pagi sahabatku terbaik kh ahmad zubaidah dan selalu saya panggil cak ida</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'syair', 'taubat', 'yg', 'selama', 'ini', 'kerap', 'kita', 'dengar', 'amp', 'kerap', 'membuat', 'air', 'mata', 'menetes', 'saat', 'mendengarnya', 'diciptakan', 'oleh']</t>
+          <t>['rt', 'telah', 'wafat', 'tadi', 'pagi', 'sahabatku', 'terbaik', 'kh', 'ahmad', 'zubaidah', 'dan', 'selalu', 'saya', 'panggil', 'cak', 'ida']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'telah', 'wafat', 'tadi', 'pagi', 'sahabatku', 'terbaik', 'kh', 'ahmad', 'zubaidah', 'dan', 'selalu', 'saya', 'panggil', 'cak', 'ida']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['syair', 'taubat', 'kerap', 'dengar', 'kerap', 'air', 'mata', 'menetes', 'mendengarnya', 'diciptakan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['syair', 'taubat', 'kerap', 'dengar', 'kerap', 'air', 'mata', 'tetes', 'dengar', 'cipta']</t>
+          <t>['wafat', 'pagi', 'sahabatku', 'terbaik', 'kh', 'ahmad', 'zubaidah', 'panggil', 'cak', 'ida']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['wafat', 'pagi', 'sahabat', 'baik', 'kh', 'ahmad', 'zubaidah', 'panggil', 'cak', 'ida']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15766</v>
+        <v>26635</v>
       </c>
       <c r="C20" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>hudhi bingung dok cara makannya</t>
+          <t>hudhi gas wes doklosss gak rewel blas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['hudhi', 'bingung', 'dok', 'cara', 'makannya']</t>
+          <t>['hudhi', 'gas', 'wes', 'doklosss', 'gak', 'rewel', 'blas']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['hudhi', 'gas', 'sudah', 'doklosss', 'tidak', 'rewel', 'sama, sekali']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['hudhi', 'bingung', 'dok', 'makannya']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['hudhi', 'bingung', 'dok', 'makan']</t>
+          <t>['hudhi', 'gas', 'doklosss', 'rewel', 'sama, sekali']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['hudhi', 'gas', 'doklosss', 'rewel', 'sama sekali']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15767</v>
+        <v>26636</v>
       </c>
       <c r="C21" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>rt di facebook belakangan ini sedang rame ada akun dokter yang sangat agresif menyebarkan pandangannya yang ekstrem khas pengan</t>
+          <t xml:space="preserve">rt syair taubat yg selama ini kerap kita dengar amp kerap membuat air mata menetes saat mendengarnya diciptakan oleh </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['rt', 'di', 'facebook', 'belakangan', 'ini', 'sedang', 'rame', 'ada', 'akun', 'dokter', 'yang', 'sangat', 'agresif', 'menyebarkan', 'pandangannya', 'yang', 'ekstrem', 'khas', 'pengan']</t>
+          <t>['rt', 'syair', 'taubat', 'yg', 'selama', 'ini', 'kerap', 'kita', 'dengar', 'amp', 'kerap', 'membuat', 'air', 'mata', 'menetes', 'saat', 'mendengarnya', 'diciptakan', 'oleh']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'syair', 'taubat', 'yang', 'selama', 'ini', 'kerap', 'kita', 'dengar', 'amp', 'kerap', 'membuat', 'air', 'mata', 'menetes', 'saat', 'mendengarnya', 'diciptakan', 'oleh']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['facebook', 'rame', 'akun', 'dokter', 'agresif', 'menyebarkan', 'pandangannya', 'ekstrem', 'khas', 'pengan']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['facebook', 'rame', 'akun', 'dokter', 'agresif', 'sebar', 'pandang', 'ekstrem', 'khas', 'kan']</t>
+          <t>['syair', 'taubat', 'kerap', 'dengar', 'kerap', 'air', 'mata', 'menetes', 'mendengarnya', 'diciptakan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['syair', 'taubat', 'kerap', 'dengar', 'kerap', 'air', 'mata', 'tetes', 'dengar', 'cipta']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15768</v>
+        <v>26637</v>
       </c>
       <c r="C22" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>rt hudhi hari ini akan jadi sejarah indonesia akan menyentuh kasus ditunggu statement today buat rakyat</t>
+          <t>hudhi bingung dok cara makannya</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['rt', 'hudhi', 'hari', 'ini', 'akan', 'jadi', 'sejarah', 'indonesia', 'akan', 'menyentuh', 'kasus', 'ditunggu', 'statement', 'today', 'buat', 'rakyat']</t>
+          <t>['hudhi', 'bingung', 'dok', 'cara', 'makannya']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['hudhi', 'bingung', 'dok', 'cara', 'makannya']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['hudhi', 'sejarah', 'indonesia', 'menyentuh', 'ditunggu', 'statement', 'today', 'rakyat']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['hudhi', 'sejarah', 'indonesia', 'sentuh', 'tunggu', 'statement', 'today', 'rakyat']</t>
+          <t>['hudhi', 'bingung', 'dok', 'makannya']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['hudhi', 'bingung', 'dok', 'makan']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15769</v>
+        <v>26638</v>
       </c>
       <c r="C23" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt dirs pejabat publik harus bisa memberikan penjelasan yg baik akan satu kebijakan jangan kayak gini ya penjelasannya malu bacanya</t>
+          <t>rt di facebook belakangan ini sedang rame ada akun dokter yang sangat agresif menyebarkan pandangannya yang ekstrem khas pengan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'dirs', 'pejabat', 'publik', 'harus', 'bisa', 'memberikan', 'penjelasan', 'yg', 'baik', 'akan', 'satu', 'kebijakan', 'jangan', 'kayak', 'gini', 'ya', 'penjelasannya', 'malu', 'bacanya']</t>
+          <t>['rt', 'di', 'facebook', 'belakangan', 'ini', 'sedang', 'rame', 'ada', 'akun', 'dokter', 'yang', 'sangat', 'agresif', 'menyebarkan', 'pandangannya', 'yang', 'ekstrem', 'khas', 'pengan']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'di', 'facebook', 'belakangan', 'ini', 'sedang', 'ramai', 'ada', 'akun', 'dokter', 'yang', 'sangat', 'agresif', 'menyebarkan', 'pandangannya', 'yang', 'ekstrem', 'khas', 'ingin']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['dirs', 'pejabat', 'publik', 'penjelasan', 'kebijakan', 'kayak', 'gini', 'penjelasannya', 'malu', 'bacanya']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['dirs', 'jabat', 'publik', 'jelas', 'bijak', 'kayak', 'gin', 'jelas', 'malu', 'baca']</t>
+          <t>['facebook', 'ramai', 'akun', 'dokter', 'agresif', 'menyebarkan', 'pandangannya', 'ekstrem', 'khas']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['facebook', 'ramai', 'akun', 'dokter', 'agresif', 'sebar', 'pandang', 'ekstrem', 'khas']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15770</v>
+        <v>26639</v>
       </c>
       <c r="C24" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt abah bersama dirs</t>
+          <t>rt hudhi hari ini akan jadi sejarah indonesia akan menyentuh kasus ditunggu statement today buat rakyat</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'abah', 'bersama', 'dirs']</t>
+          <t>['rt', 'hudhi', 'hari', 'ini', 'akan', 'jadi', 'sejarah', 'indonesia', 'akan', 'menyentuh', 'kasus', 'ditunggu', 'statement', 'today', 'buat', 'rakyat']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'hudhi', 'hari', 'ini', 'akan', 'jadi', 'sejarah', 'indonesia', 'akan', 'menyentuh', 'kasus', 'ditunggu', 'pernyataan', 'today', 'buat', 'rakyat']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['abah', 'dirs']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['abah', 'dirs']</t>
+          <t>['hudhi', 'sejarah', 'indonesia', 'menyentuh', 'ditunggu', 'pernyataan', 'today', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['hudhi', 'sejarah', 'indonesia', 'sentuh', 'tunggu', 'nyata', 'today', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15771</v>
+        <v>26640</v>
       </c>
       <c r="C25" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt bisa dipahami mengapa tak berani mengusik petral selain enggan bicara tentang hambalang amp proyek mangkr</t>
+          <t>rt dirs pejabat publik harus bisa memberikan penjelasan yg baik akan satu kebijakan jangan kayak gini ya penjelasannya malu bacanya</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'bisa', 'dipahami', 'mengapa', 'tak', 'berani', 'mengusik', 'petral', 'selain', 'enggan', 'bicara', 'tentang', 'hambalang', 'amp', 'proyek', 'mangkr']</t>
+          <t>['rt', 'dirs', 'pejabat', 'publik', 'harus', 'bisa', 'memberikan', 'penjelasan', 'yg', 'baik', 'akan', 'satu', 'kebijakan', 'jangan', 'kayak', 'gini', 'ya', 'penjelasannya', 'malu', 'bacanya']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'dirs', 'pejabat', 'publik', 'harus', 'bisa', 'memberikan', 'penjelasan', 'yang', 'baik', 'akan', 'satu', 'kebijakan', 'jangan', 'kayak', 'begini', 'ya', 'penjelasannya', 'malu', 'bacanya']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['dipahami', 'berani', 'mengusik', 'petral', 'enggan', 'bicara', 'hambalang', 'proyek', 'mangkr']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['paham', 'berani', 'usik', 'petral', 'enggan', 'bicara', 'hambalang', 'proyek', 'mangkr']</t>
+          <t>['dirs', 'pejabat', 'publik', 'penjelasan', 'kebijakan', 'kayak', 'penjelasannya', 'malu', 'bacanya']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['dirs', 'jabat', 'publik', 'jelas', 'bijak', 'kayak', 'jelas', 'malu', 'baca']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15772</v>
+        <v>26641</v>
       </c>
       <c r="C26" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt kelakuan fpi tanah surga aj di klaim apalagi cuma tanah negara haaa vaksin lancar rakyat kuat</t>
+          <t>rt abah bersama dirs</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'kelakuan', 'fpi', 'tanah', 'surga', 'aj', 'di', 'klaim', 'apalagi', 'cuma', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
+          <t>['rt', 'abah', 'bersama', 'dirs']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'ayah', 'bersama', 'dirs']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kelakuan', 'fpi', 'tanah', 'surga', 'aj', 'klaim', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['laku', 'fpi', 'tanah', 'surga', 'aj', 'klaim', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
+          <t>['ayah', 'dirs']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ayah', 'dirs']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15773</v>
+        <v>26642</v>
       </c>
       <c r="C27" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>rt selama pandemi belum terkendali jangan nekad meningkatkan pariwisata di bali dan indonesia belajar dari dana insentif pari</t>
+          <t>rt kelakuan fpi tanah surga aj di klaim apalagi cuma tanah negara haaa vaksin lancar rakyat kuat</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['rt', 'selama', 'pandemi', 'belum', 'terkendali', 'jangan', 'nekad', 'meningkatkan', 'pariwisata', 'di', 'bali', 'dan', 'indonesia', 'belajar', 'dari', 'dana', 'insentif', 'pari']</t>
+          <t>['rt', 'kelakuan', 'fpi', 'tanah', 'surga', 'aj', 'di', 'klaim', 'apalagi', 'cuma', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'kelakuan', 'front, pembela, islam', 'tanah', 'surga', 'saja', 'di', 'klaim', 'apalagi', 'cuma', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['pandemi', 'terkendali', 'nekad', 'meningkatkan', 'pariwisata', 'bali', 'indonesia', 'belajar', 'dana', 'insentif', 'pari']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['pandemi', 'kendali', 'nekad', 'tingkat', 'pariwisata', 'bal', 'indonesia', 'ajar', 'dana', 'insentif', 'pari']</t>
+          <t>['kelakuan', 'front, pembela, islam', 'tanah', 'surga', 'klaim', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['laku', 'front bela islam', 'tanah', 'surga', 'klaim', 'tanah', 'negara', 'haaa', 'vaksin', 'lancar', 'rakyat', 'kuat']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15774</v>
+        <v>26643</v>
       </c>
       <c r="C28" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt cvd ini virus yg aneh gejala langsung timbul saat imun tubuh lagi turun gua alamin sendiri cara gue biar imun naik ada</t>
+          <t>rt selama pandemi belum terkendali jangan nekad meningkatkan pariwisata di bali dan indonesia belajar dari dana insentif pari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'cvd', 'ini', 'virus', 'yg', 'aneh', 'gejala', 'langsung', 'timbul', 'saat', 'imun', 'tubuh', 'lagi', 'turun', 'gua', 'alamin', 'sendiri', 'cara', 'gue', 'biar', 'imun', 'naik', 'ada']</t>
+          <t>['rt', 'selama', 'pandemi', 'belum', 'terkendali', 'jangan', 'nekad', 'meningkatkan', 'pariwisata', 'di', 'bali', 'dan', 'indonesia', 'belajar', 'dari', 'dana', 'insentif', 'pari']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'selama', 'pandemi', 'belum', 'terkendali', 'jangan', 'nekad', 'meningkatkan', 'pariwisata', 'di', 'bali', 'dan', 'indonesia', 'belajar', 'dari', 'dana', 'insentif', 'pari']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['cvd', 'virus', 'aneh', 'gejala', 'langsung', 'timbul', 'imun', 'tubuh', 'turun', 'gua', 'alamin', 'gue', 'imun']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['cvd', 'virus', 'aneh', 'gejala', 'langsung', 'timbul', 'imun', 'tubuh', 'turun', 'gua', 'alamin', 'gue', 'imun']</t>
+          <t>['pandemi', 'terkendali', 'nekad', 'meningkatkan', 'pariwisata', 'bali', 'indonesia', 'belajar', 'dana', 'insentif', 'pari']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['pandemi', 'kendali', 'nekad', 'tingkat', 'pariwisata', 'bal', 'indonesia', 'ajar', 'dana', 'insentif', 'pari']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15775</v>
+        <v>26644</v>
       </c>
       <c r="C29" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt zeebo organisasi besar islam di republik indonesia ini yang menopang kelangsungan negara bahkan ikut mendirikannya yaitu nahd</t>
+          <t>rt cvd ini virus yg aneh gejala langsung timbul saat imun tubuh lagi turun gua alamin sendiri cara gue biar imun naik ada</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'zeebo', 'organisasi', 'besar', 'islam', 'di', 'republik', 'indonesia', 'ini', 'yang', 'menopang', 'kelangsungan', 'negara', 'bahkan', 'ikut', 'mendirikannya', 'yaitu', 'nahd']</t>
+          <t>['rt', 'cvd', 'ini', 'virus', 'yg', 'aneh', 'gejala', 'langsung', 'timbul', 'saat', 'imun', 'tubuh', 'lagi', 'turun', 'gua', 'alamin', 'sendiri', 'cara', 'gue', 'biar', 'imun', 'naik', 'ada']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'cvd', 'ini', 'virus', 'yang', 'aneh', 'gejala', 'langsung', 'timbul', 'saat', 'imun', 'tubuh', 'lagi', 'turun', 'gue', 'alamin', 'sendiri', 'cara', 'gue', 'biar', 'imun', 'naik', 'ada']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['zeebo', 'organisasi', 'islam', 'republik', 'indonesia', 'menopang', 'kelangsungan', 'negara', 'mendirikannya', 'nahd']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['zeebo', 'organisasi', 'islam', 'republik', 'indonesia', 'topang', 'langsung', 'negara', 'diri', 'nahd']</t>
+          <t>['cvd', 'virus', 'aneh', 'gejala', 'langsung', 'timbul', 'imun', 'tubuh', 'turun', 'gue', 'alamin', 'gue', 'imun']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['cvd', 'virus', 'aneh', 'gejala', 'langsung', 'timbul', 'imun', 'tubuh', 'turun', 'gue', 'alamin', 'gue', 'imun']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15776</v>
+        <v>26645</v>
       </c>
       <c r="C30" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>wes gus bingung ambek karepe wong</t>
+          <t>rt zeebo organisasi besar islam di republik indonesia ini yang menopang kelangsungan negara bahkan ikut mendirikannya yaitu nahd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['wes', 'gus', 'bingung', 'ambek', 'karepe', 'wong']</t>
+          <t>['rt', 'zeebo', 'organisasi', 'besar', 'islam', 'di', 'republik', 'indonesia', 'ini', 'yang', 'menopang', 'kelangsungan', 'negara', 'bahkan', 'ikut', 'mendirikannya', 'yaitu', 'nahd']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'zeebo', 'organisasi', 'besar', 'islam', 'di', 'republik', 'indonesia', 'ini', 'yang', 'menopang', 'kelangsungan', 'negara', 'bahkan', 'ikut', 'mendirikannya', 'yaitu', 'nahd']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['wes', 'gus', 'bingung', 'ambek', 'karepe']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['wes', 'gus', 'bingung', 'ambek', 'karepe']</t>
+          <t>['zeebo', 'organisasi', 'islam', 'republik', 'indonesia', 'menopang', 'kelangsungan', 'negara', 'mendirikannya', 'nahd']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['zeebo', 'organisasi', 'islam', 'republik', 'indonesia', 'topang', 'langsung', 'negara', 'diri', 'nahd']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15777</v>
+        <v>26646</v>
       </c>
       <c r="C31" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rt mvllestari terima kasih mas memberikan respon cepat amp tegas utk masalah yg merisaukan ini semoga me</t>
+          <t>wes gus bingung ambek karepe wong</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rt', 'mvllestari', 'terima', 'kasih', 'mas', 'memberikan', 'respon', 'cepat', 'amp', 'tegas', 'utk', 'masalah', 'yg', 'merisaukan', 'ini', 'semoga', 'me']</t>
+          <t>['wes', 'gus', 'bingung', 'ambek', 'karepe', 'wong']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sudah', 'gus', 'bingung', 'ambek', 'karepe', 'orang']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mvllestari', 'terima', 'kasih', 'mas', 'respon', 'cepat', 'merisaukan', 'semoga', 'me']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mvllestari', 'terima', 'kasih', 'mas', 'respon', 'cepat', 'risau', 'moga', 'me']</t>
+          <t>['gus', 'bingung', 'ambek', 'karepe', 'orang']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['gus', 'bingung', 'ambek', 'karepe', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15778</v>
+        <v>26647</v>
       </c>
       <c r="C32" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt agama kok dibanggakan agama itu aturan supaya manusia gak barbar namanya aturan ya dipelajari dimengerti dan dijal</t>
+          <t>rt mvllestari terima kasih mas memberikan respon cepat amp tegas utk masalah yg merisaukan ini semoga me</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'agama', 'kok', 'dibanggakan', 'agama', 'itu', 'aturan', 'supaya', 'manusia', 'gak', 'barbar', 'namanya', 'aturan', 'ya', 'dipelajari', 'dimengerti', 'dan', 'dijal']</t>
+          <t>['rt', 'mvllestari', 'terima', 'kasih', 'mas', 'memberikan', 'respon', 'cepat', 'amp', 'tegas', 'utk', 'masalah', 'yg', 'merisaukan', 'ini', 'semoga', 'me']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'mvllestari', 'terima', 'kasih', 'mas', 'memberikan', 'respon', 'cepat', 'amp', 'tegas', 'untuk', 'masalah', 'yang', 'merisaukan', 'ini', 'semoga', 'me']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['agama', 'dibanggakan', 'agama', 'aturan', 'manusia', 'barbar', 'namanya', 'aturan', 'dipelajari', 'dimengerti', 'dijal']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['agama', 'bangga', 'agama', 'atur', 'manusia', 'barbar', 'nama', 'atur', 'ajar', 'erti', 'dijal']</t>
+          <t>['mvllestari', 'terima', 'kasih', 'mas', 'respon', 'cepat', 'merisaukan', 'semoga', 'me']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['mvllestari', 'terima', 'kasih', 'mas', 'respon', 'cepat', 'risau', 'moga', 'me']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15779</v>
+        <v>26648</v>
       </c>
       <c r="C33" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt coverboykw mention ahh bgmn kabarmu sehat kan alhamdulillah klo km bro sehat juga kan</t>
+          <t>rt agama kok dibanggakan agama itu aturan supaya manusia gak barbar namanya aturan ya dipelajari dimengerti dan dijal</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'coverboykw', 'mention', 'ahh', 'bgmn', 'kabarmu', 'sehat', 'kan', 'alhamdulillah', 'klo', 'km', 'bro', 'sehat', 'juga', 'kan']</t>
+          <t>['rt', 'agama', 'kok', 'dibanggakan', 'agama', 'itu', 'aturan', 'supaya', 'manusia', 'gak', 'barbar', 'namanya', 'aturan', 'ya', 'dipelajari', 'dimengerti', 'dan', 'dijal']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'agama', 'kok', 'dibanggakan', 'agama', 'itu', 'aturan', 'supaya', 'manusia', 'tidak', 'barbar', 'namanya', 'aturan', 'ya', 'dipelajari', 'dimengerti', 'dan', 'dijal']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['coverboykw', 'mention', 'ahh', 'bgmn', 'kabarmu', 'sehat', 'alhamdulillah', 'km', 'bro', 'sehat']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['coverboykw', 'mention', 'ahh', 'bgmn', 'kabar', 'sehat', 'alhamdulillah', 'km', 'bro', 'sehat']</t>
+          <t>['agama', 'dibanggakan', 'agama', 'aturan', 'manusia', 'barbar', 'namanya', 'aturan', 'dipelajari', 'dimengerti', 'dijal']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['agama', 'bangga', 'agama', 'atur', 'manusia', 'barbar', 'nama', 'atur', 'ajar', 'erti', 'dijal']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15780</v>
+        <v>26649</v>
       </c>
       <c r="C34" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>rt bukti bahwa itu mega gblk adalah fakta prestasi zonk auto pamer kebodohan ga heran demokrat bisa sede</t>
+          <t>rt coverboykw mention ahh bgmn kabarmu sehat kan alhamdulillah klo km bro sehat juga kan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['rt', 'bukti', 'bahwa', 'itu', 'mega', 'gblk', 'adalah', 'fakta', 'prestasi', 'zonk', 'auto', 'pamer', 'kebodohan', 'ga', 'heran', 'demokrat', 'bisa', 'sede']</t>
+          <t>['rt', 'coverboykw', 'mention', 'ahh', 'bgmn', 'kabarmu', 'sehat', 'kan', 'alhamdulillah', 'klo', 'km', 'bro', 'sehat', 'juga', 'kan']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'coverboykw', 'mention', 'ah', 'bagaimana', 'kabarmu', 'sehat', 'kan', 'alhamdulillah', 'kalau', 'km', 'bro', 'sehat', 'juga', 'kan']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['bukti', 'mega', 'gblk', 'fakta', 'prestasi', 'zonk', 'auto', 'pamer', 'kebodohan', 'heran', 'demokrat', 'sede']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bukti', 'mega', 'gblk', 'fakta', 'prestasi', 'zonk', 'auto', 'pamer', 'bodoh', 'heran', 'demokrat', 'sede']</t>
+          <t>['coverboykw', 'mention', 'ah', 'kabarmu', 'sehat', 'alhamdulillah', 'km', 'bro', 'sehat']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['coverboykw', 'mention', 'ah', 'kabar', 'sehat', 'alhamdulillah', 'km', 'bro', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15781</v>
+        <v>26650</v>
       </c>
       <c r="C35" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt sudahlah jadi foto model saja tuhan pasti suka</t>
+          <t>rt bukti bahwa itu mega gblk adalah fakta prestasi zonk auto pamer kebodohan ga heran demokrat bisa sede</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'sudahlah', 'jadi', 'foto', 'model', 'saja', 'tuhan', 'pasti', 'suka']</t>
+          <t>['rt', 'bukti', 'bahwa', 'itu', 'mega', 'gblk', 'adalah', 'fakta', 'prestasi', 'zonk', 'auto', 'pamer', 'kebodohan', 'ga', 'heran', 'demokrat', 'bisa', 'sede']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'bukti', 'bahwa', 'itu', 'mega', 'goblok', 'adalah', 'fakta', 'prestasi', 'apes', 'auto', 'pamer', 'kebodohan', 'tidak', 'heran', 'demokrat', 'bisa', 'sede']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['foto', 'model', 'tuhan', 'suka']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['foto', 'model', 'tuhan', 'suka']</t>
+          <t>['bukti', 'mega', 'goblok', 'fakta', 'prestasi', 'apes', 'auto', 'pamer', 'kebodohan', 'heran', 'demokrat', 'sede']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['bukti', 'mega', 'goblok', 'fakta', 'prestasi', 'apes', 'auto', 'pamer', 'bodoh', 'heran', 'demokrat', 'sede']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15782</v>
+        <v>26651</v>
       </c>
       <c r="C36" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,17 +1891,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'open', 'promo', 'usaha, mikro, kecil, dan, menengah', 'penggerak', 'ekonomi', 'bangsa', 'untuk', 'sejahtera', 'promoter']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['open', 'promo', 'umkm', 'penggerak', 'ekonomi', 'bangsa', 'sejahtera', 'promoter']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['open', 'promo', 'umkm', 'gerak', 'ekonomi', 'bangsa', 'sejahtera', 'promoter']</t>
+          <t>['open', 'promo', 'usaha, mikro, kecil, dan, menengah', 'penggerak', 'ekonomi', 'bangsa', 'sejahtera', 'promoter']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['open', 'promo', 'usaha mikro kecil dan tengah', 'gerak', 'ekonomi', 'bangsa', 'sejahtera', 'promoter']</t>
         </is>
       </c>
     </row>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15783</v>
+        <v>26652</v>
       </c>
       <c r="C37" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,15 +1932,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['wkwkkwwkwkkwwkwk']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['wkwkkwwkwkkwwkwk']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['wkwkkwwkwkkwwkwk']</t>
         </is>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15784</v>
+        <v>26653</v>
       </c>
       <c r="C38" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rt', 'rusi', 'peluncuran', 'gerakan', 'nasional', 'wakaf', 'uang', 'dan', 'peresmian', 'merek', 'ekonomi', 'syariat', 'oleh', 'pak', 'presiden', 'dan', 'pak', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['rusi', 'peluncuran', 'gerakan', 'nasional', 'wakaf', 'uang', 'peresmian', 'brand', 'ekonomi', 'syariah', 'presiden', 'wapres']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['rusi', 'luncur', 'gera', 'nasional', 'wakaf', 'uang', 'resmi', 'brand', 'ekonomi', 'syariah', 'presiden', 'wapres']</t>
+          <t>['rusi', 'peluncuran', 'gerakan', 'nasional', 'wakaf', 'uang', 'peresmian', 'merek', 'ekonomi', 'syariat', 'presiden', 'wakil, presiden']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['rusi', 'luncur', 'gera', 'nasional', 'wakaf', 'uang', 'resmi', 'merek', 'ekonomi', 'syariat', 'presiden', 'wakil presiden']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15785</v>
+        <v>26654</v>
       </c>
       <c r="C39" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'badan, reserse, kriminal', 'sudah', 'berubah', 'tugas', 'unduh', 'aplikasi', 'untuk', 'akses', 'berita', 'lebih', 'mud']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['bareskrim', 'dah', 'berubah', 'tugas', 'download', 'aplikasi', 'akses', 'berita', 'mud']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['bareskrim', 'dah', 'ubah', 'tugas', 'download', 'aplikasi', 'akses', 'berita', 'mud']</t>
+          <t>['badan, reserse, kriminal', 'berubah', 'tugas', 'unduh', 'aplikasi', 'akses', 'berita', 'mud']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['badan reserse kriminal', 'ubah', 'tugas', 'unduh', 'aplikasi', 'akses', 'berita', 'mud']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15786</v>
+        <v>26655</v>
       </c>
       <c r="C40" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'hudhi', 'siap', 'bang', 'jago', 'ampun']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['hudhi', 'bang', 'jago', 'ampun']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['hudhi', 'bang', 'jago', 'ampun']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15787</v>
+        <v>26656</v>
       </c>
       <c r="C41" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1892,15 +2092,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1911,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15788</v>
+        <v>26657</v>
       </c>
       <c r="C42" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1928,17 +2133,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['rt', 'utriza', 'setuju', 'dengan', 'kebijakan', 'cakapolri', 'komjen', 'listyo', 'hebat', 'ini', 'belajar', 'agama', 'itu', 'memang', 'harus', 'langsung', 'dari', 'sumber', 'buku', 'yang', 'ditulis']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['utriza', 'setuju', 'kebijakan', 'cakapolri', 'komjen', 'listyo', 'hebat', 'belajar', 'agama', 'lgsg', 'dr', 'sumber', 'buku', 'ditulis']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['utriza', 'tuju', 'bijak', 'cakapolri', 'komjen', 'listyo', 'hebat', 'ajar', 'agama', 'lgsg', 'dr', 'sumber', 'buku', 'tulis']</t>
+          <t>['utriza', 'setuju', 'kebijakan', 'cakapolri', 'komjen', 'listyo', 'hebat', 'belajar', 'agama', 'langsung', 'sumber', 'buku', 'ditulis']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['utriza', 'tuju', 'bijak', 'cakapolri', 'komjen', 'listyo', 'hebat', 'ajar', 'agama', 'langsung', 'sumber', 'buku', 'tulis']</t>
         </is>
       </c>
     </row>
@@ -1947,10 +2157,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15789</v>
+        <v>26658</v>
       </c>
       <c r="C43" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1964,15 +2174,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'khoz', 'betul', 'mbak', 'izin', 'cc', 'pak', 'menpanrb', 'kumolo']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['khoz', 'mbak', 'izin', 'cc', 'menpanrb', 'kumolo']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['khoz', 'mbak', 'izin', 'cc', 'menpanrb', 'kumolo']</t>
         </is>
@@ -1983,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15790</v>
+        <v>26659</v>
       </c>
       <c r="C44" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2000,15 +2215,20 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['parahhhhhhhhh']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>['parahhhhhhhhh']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>['parahhhhhhhhh']</t>
         </is>
@@ -2019,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15791</v>
+        <v>26660</v>
       </c>
       <c r="C45" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2036,17 +2256,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'hari', 'begini', 'mendukung', 'partai', 'para', 'maling', 'uang', 'negara', 'kamu', 'waras', 'tong']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['gini', 'mendukung', 'partai', 'maling', 'uang', 'negara', 'lo', 'waras', 'tong']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['gin', 'dukung', 'partai', 'maling', 'uang', 'negara', 'lo', 'waras', 'tong']</t>
+          <t>['mendukung', 'partai', 'maling', 'uang', 'negara', 'waras', 'tong']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['dukung', 'partai', 'maling', 'uang', 'negara', 'waras', 'tong']</t>
         </is>
       </c>
     </row>
@@ -2055,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15792</v>
+        <v>26661</v>
       </c>
       <c r="C46" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -2068,15 +2293,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2087,10 +2317,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15793</v>
+        <v>26662</v>
       </c>
       <c r="C47" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2104,15 +2334,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['ternyata', 'parahnya', 'melebihi', 'bencana', 'saat', 'ini']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['parahnya', 'melebihi', 'bencana']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['parah', 'lebih', 'bencana']</t>
         </is>
@@ -2123,10 +2358,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15794</v>
+        <v>26663</v>
       </c>
       <c r="C48" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2140,17 +2375,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'quinee', 'shalom', 'dear', 'twit', 'hari', 'ini', 'banyak', 'hal', 'yang', 'terjadi', 'di, luar', 'kendali', 'kita', 'namun', 'satu', 'hal', 'yang', 'pasti', 'bahwa', 'tidak', 'ada', 'sat']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['quinee', 'shalom', 'dear', 'tweeps', 'byk', 'tjd', 'diluar', 'kendali', 'sat']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['quinee', 'shalom', 'dear', 'tweeps', 'byk', 'tjd', 'luar', 'kendali', 'sat']</t>
+          <t>['quinee', 'shalom', 'dear', 'twit', 'di, luar', 'kendali', 'sat']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['quinee', 'shalom', 'dear', 'twit', 'di luar', 'kendali', 'sat']</t>
         </is>
       </c>
     </row>
@@ -2159,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15795</v>
+        <v>26664</v>
       </c>
       <c r="C49" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2176,17 +2416,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['rt', 'kepala', 'gue', 'pusing', 'memikirkan', 'bagaimana', 'caranya', 'orang', 'yang', 'pro', 'legalisasi', 'ganja', 'amp', 'regulasi', 'prostitusi', 'disebut', 'pro', 'front, pembela, islam']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['kepala', 'gue', 'pusing', 'mikirin', 'gimana', 'org', 'pro', 'legalisasi', 'ganja', 'regulasi', 'prostitusi', 'pro', 'fpi']</t>
-        </is>
-      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['kepala', 'gue', 'pusing', 'mikirin', 'gimana', 'org', 'pro', 'legalisasi', 'ganja', 'regulasi', 'prostitusi', 'pro', 'fpi']</t>
+          <t>['kepala', 'gue', 'pusing', 'memikirkan', 'orang', 'pro', 'legalisasi', 'ganja', 'regulasi', 'prostitusi', 'pro', 'front, pembela, islam']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kepala', 'gue', 'pusing', 'pikir', 'orang', 'pro', 'legalisasi', 'ganja', 'regulasi', 'prostitusi', 'pro', 'front bela islam']</t>
         </is>
       </c>
     </row>
@@ -2195,10 +2440,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15796</v>
+        <v>26665</v>
       </c>
       <c r="C50" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2212,17 +2457,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['rt', 'alghozali', 'contoh', 'orang', 'berani', 'karena', 'goblok', 'bukan', 'karena', 'benar']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['alghozali', 'contoh', 'orang', 'berani', 'goblog']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['alghozali', 'contoh', 'orang', 'berani', 'goblog']</t>
+          <t>['alghozali', 'contoh', 'orang', 'berani', 'goblok']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['alghozali', 'contoh', 'orang', 'berani', 'goblok']</t>
         </is>
       </c>
     </row>
@@ -2231,10 +2481,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15797</v>
+        <v>26666</v>
       </c>
       <c r="C51" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2248,17 +2498,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'sdq', 'ketika', 'allah', 'memerintahkan', 'kita', 'untuk', 'meminta', 'petunjuk', 'jalan', 'yang', 'lurus', 'maka', 'diteruskan', 'dengan', 'qoyyid', 'yaitu', 'jalan', 'yang', 'telah']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['sdq', 'alloh', 'memerintahkan', 'petunjuk', 'jalan', 'lurus', 'diteruskan', 'qoyyid', 'jalan', 'tlh']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['sdq', 'alloh', 'perintah', 'tunjuk', 'jalan', 'lurus', 'terus', 'qoyyid', 'jalan', 'tlh']</t>
+          <t>['sdq', 'allah', 'memerintahkan', 'petunjuk', 'jalan', 'lurus', 'diteruskan', 'qoyyid', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['sdq', 'allah', 'perintah', 'tunjuk', 'jalan', 'lurus', 'terus', 'qoyyid', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -2267,10 +2522,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15798</v>
+        <v>26667</v>
       </c>
       <c r="C52" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2284,17 +2539,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'khoz', 'rapid', 'tes', 'amp', 'swab', 'tes', 'jadi', 'ladang', 'mencari', 'keuntungan', 'berlipat', 'di', 'tengah', 'pandemi', 'sebentar', 'lagi', 'vaksin', 'corona', 'versi', 'mandiri', 'juga', 'aku']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['khoz', 'rapid', 'tes', 'swab', 'tes', 'ladang', 'mencari', 'keuntungan', 'berlipat', 'pandemi', 'sebentar', 'lg', 'vaksin', 'corona', 'versi', 'mandiri', 'jg', 'ak']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['khoz', 'rapid', 'tes', 'swab', 'tes', 'ladang', 'cari', 'untung', 'lipat', 'pandemi', 'sebentar', 'lg', 'vaksin', 'corona', 'versi', 'mandiri', 'jg', 'ak']</t>
+          <t>['khoz', 'rapid', 'tes', 'swab', 'tes', 'ladang', 'mencari', 'keuntungan', 'berlipat', 'pandemi', 'sebentar', 'vaksin', 'corona', 'versi', 'mandiri']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['khoz', 'rapid', 'tes', 'swab', 'tes', 'ladang', 'cari', 'untung', 'lipat', 'pandemi', 'sebentar', 'vaksin', 'corona', 'versi', 'mandiri']</t>
         </is>
       </c>
     </row>
@@ -2303,10 +2563,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15799</v>
+        <v>26668</v>
       </c>
       <c r="C53" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2320,15 +2580,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['semoga', 'segera', 'di', 'angkat', 'penyakitnya']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>['semoga', 'angkat', 'penyakitnya']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>['moga', 'angkat', 'sakit']</t>
         </is>
@@ -2339,10 +2604,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15800</v>
+        <v>26669</v>
       </c>
       <c r="C54" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2356,15 +2621,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['mvllestari', 'komodo']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['mvllestari', 'komodo']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['mvllestari', 'komodo']</t>
         </is>
@@ -2375,10 +2645,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15801</v>
+        <v>26670</v>
       </c>
       <c r="C55" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2392,17 +2662,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'apakah', 'ada', 'vaksin', 'swasta', 'atau', 'rumah, sakit', 'tertentu', 'yang', 'boleh', 'vaksin', 'berbayar', 'bagi', 'yang', 'mau', 'kan', 'bagus', 'juga', 'ngurangi', 'beban', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['vaksin', 'swasta', 'rs', 'vaksin', 'berbayar', 'bagus', 'ngurangi', 'beban', 'pemerintah']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['vaksin', 'swasta', 'rs', 'vaksin', 'bayar', 'bagus', 'ngurangi', 'beban', 'perintah']</t>
+          <t>['vaksin', 'swasta', 'rumah, sakit', 'vaksin', 'berbayar', 'bagus', 'ngurangi', 'beban', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['vaksin', 'swasta', 'rumah sakit', 'vaksin', 'bayar', 'bagus', 'ngurangi', 'beban', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2411,10 +2686,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15802</v>
+        <v>26671</v>
       </c>
       <c r="C56" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2428,17 +2703,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['rt', 'khoz', 'manusia', 'sejuta', 'peran', 'beliau', 'adalah', 'syaikhona', 'abdurrahman', 'wahid', 'dari', 'santri', 'kiai', 'budayawan', 'pembela', 'minoritas', 'politikus']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['khoz', 'manusia', 'sejuta', 'peran', 'beliau', 'syaikhona', 'abdurrahman', 'wahid', 'santri', 'kyai', 'budayawan', 'pembela', 'minoritas', 'politikus']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['khoz', 'manusia', 'juta', 'peran', 'beliau', 'syaikhona', 'abdurrahman', 'wahid', 'santri', 'kyai', 'budayawan', 'bela', 'minoritas', 'politikus']</t>
+          <t>['khoz', 'manusia', 'sejuta', 'peran', 'beliau', 'syaikhona', 'abdurrahman', 'wahid', 'santri', 'kiai', 'budayawan', 'pembela', 'minoritas', 'politikus']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['khoz', 'manusia', 'juta', 'peran', 'beliau', 'syaikhona', 'abdurrahman', 'wahid', 'santri', 'kiai', 'budayawan', 'bela', 'minoritas', 'politikus']</t>
         </is>
       </c>
     </row>
@@ -2447,10 +2727,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15803</v>
+        <v>26672</v>
       </c>
       <c r="C57" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2464,17 +2744,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'hudhi', 'ini', 'yang', 'buat', 'jam', 'malam', 'tidak', 'merasakan', 'lapar', 'malam', 'dan', 'cari', 'warung', 'susah', 'banget', 'corona', 'keluar', 'jam', 'tidak', 'malam', 'doang', 'woi']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['hudhi', 'jam', 'malam', 'ngrasain', 'laper', 'malem', 'cari', 'warung', 'susah', 'banget', 'corona', 'jam', 'malem', 'doank', 'woi']</t>
+          <t>&lt;FreqDist with 19 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['hudhi', 'jam', 'malam', 'ngrasain', 'laper', 'malem', 'cari', 'warung', 'susah', 'banget', 'corona', 'jam', 'malem', 'doank', 'woi']</t>
+          <t>['hudhi', 'jam', 'malam', 'merasakan', 'lapar', 'malam', 'cari', 'warung', 'susah', 'banget', 'corona', 'jam', 'malam', 'doang', 'woi']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['hudhi', 'jam', 'malam', 'rasa', 'lapar', 'malam', 'cari', 'warung', 'susah', 'banget', 'corona', 'jam', 'malam', 'doang', 'woi']</t>
         </is>
       </c>
     </row>
@@ -2483,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15804</v>
+        <v>26673</v>
       </c>
       <c r="C58" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2500,15 +2785,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['semoga', 'makin', 'berkah', 'gus', 'ulil']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['semoga', 'berkah', 'gus', 'ulil']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['moga', 'berkah', 'gus', 'ulil']</t>
         </is>
@@ -2519,10 +2809,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15805</v>
+        <v>26674</v>
       </c>
       <c r="C59" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2536,17 +2826,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['rt', 'simak', 'ini', 'bantahan', 'dari', 'ibu', 'risma', 'tolong', 'rt', 'agar', 'para', 'kadrun', 'dan', 'kacung', 'enggak, benar', 'sadar']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['simak', 'bantahan', 'risma', 'tolong', 'kadrun', 'kacung', 'gabener', 'sadar']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['simak', 'bantah', 'risma', 'tolong', 'kadrun', 'kacung', 'gabener', 'sadar']</t>
+          <t>['simak', 'bantahan', 'risma', 'tolong', 'kadrun', 'kacung', 'enggak, benar', 'sadar']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['simak', 'bantah', 'risma', 'tolong', 'kadrun', 'kacung', 'enggak benar', 'sadar']</t>
         </is>
       </c>
     </row>
@@ -2555,10 +2850,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15806</v>
+        <v>26675</v>
       </c>
       <c r="C60" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2572,15 +2867,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['bu', 'susi', 'idola']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['bu', 'susi', 'idola']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['bu', 'sus', 'idola']</t>
         </is>
@@ -2591,10 +2891,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15807</v>
+        <v>26676</v>
       </c>
       <c r="C61" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2608,15 +2908,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'yang', 'mau', 'difolbek', 'reply', 'ya', 'mumpung', 'free']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['difolbek', 'reply', 'mumpung', 'free']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['difolbek', 'reply', 'mumpung', 'free']</t>
         </is>
@@ -2627,10 +2932,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15808</v>
+        <v>26677</v>
       </c>
       <c r="C62" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2644,17 +2949,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['rt', 'hadis', 'palsu', 'tentang', 'siksaan', 'buat', 'perempuan', 'yang', 'kelihatan', 'rambutnya', 'banyak', 'beredar', 'kisah', 'yang', 'diriwayatkan', 'sebagai', 'berikut']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['hadits', 'palsu', 'siksaan', 'perempuan', 'rambutnya', 'beredar', 'kisah', 'diriwayatkan']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['hadits', 'palsu', 'siksa', 'perempuan', 'rambut', 'edar', 'kisah', 'riwayat']</t>
+          <t>['hadis', 'palsu', 'siksaan', 'perempuan', 'rambutnya', 'beredar', 'kisah', 'diriwayatkan']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['hadis', 'palsu', 'siksa', 'perempuan', 'rambut', 'edar', 'kisah', 'riwayat']</t>
         </is>
       </c>
     </row>
@@ -2663,10 +2973,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15809</v>
+        <v>26678</v>
       </c>
       <c r="C63" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2680,17 +2990,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['rt', 'teman', 'yang', 'akunnya', 'dikunci', 'sebenarnya', 'mau', 'di', 'folback', 'enggak', 'sih', 'selisih', 'follow', 'amp', 'pengikut', 'saya', 'masih', 'bothnewyear', 'nih']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['teman', 'akunnya', 'dikunci', 'sbnrnya', 'folback', 'nggak', 'selisih', 'follow', 'followers', 'sy', 'msh', 'bny', 'ni']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['teman', 'akun', 'kunci', 'sbnrnya', 'folback', 'nggak', 'selisih', 'follow', 'followers', 'sy', 'msh', 'bny', 'ni']</t>
+          <t>['teman', 'akunnya', 'dikunci', 'folback', 'selisih', 'follow', 'pengikut', 'bothnewyear']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['teman', 'akun', 'kunci', 'folback', 'selisih', 'follow', 'ikut', 'bothnewyear']</t>
         </is>
       </c>
     </row>
@@ -2699,10 +3014,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15810</v>
+        <v>26679</v>
       </c>
       <c r="C64" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2716,15 +3031,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'berdasarkan', 'hasil', 'swab', 'reguler', 'mingguan', 'saya', 'dinyatakan', 'positif', 'terinfeksi', 'covid', 'tidak', 'ada', 'gejala', 'yang', 'saya', 'rasakan']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['berdasarkan', 'hasil', 'swab', 'reguler', 'mingguan', 'dinyatakan', 'positif', 'terinfeksi', 'covid', 'gejala', 'rasakan']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['dasar', 'hasil', 'swab', 'reguler', 'minggu', 'nyata', 'positif', 'infeksi', 'covid', 'gejala', 'rasa']</t>
         </is>
@@ -2735,10 +3055,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15811</v>
+        <v>26680</v>
       </c>
       <c r="C65" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2752,17 +3072,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['mantap, betul']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['mantul']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mantul']</t>
+          <t>['mantap, betul']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['mantap betul']</t>
         </is>
       </c>
     </row>
@@ -2771,10 +3096,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15812</v>
+        <v>26681</v>
       </c>
       <c r="C66" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2788,17 +3113,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'ini', 'baru', 'menteri, kesehatan', 'runut', 'detail', 'jelas', 'dan', 'tidak', 'haha', 'hihi', 'semoga', 'rencananya', 'berhasil', 'dijalankan', 'dengan', 'baik', 'terbuka']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['menkes', 'runut', 'detail', 'haha', 'hihi', 'semoga', 'rencananya', 'berhasil', 'dijalankan', 'terbuka']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['menkes', 'runut', 'detail', 'haha', 'hihi', 'moga', 'rencana', 'hasil', 'jalan', 'buka']</t>
+          <t>['menteri, kesehatan', 'runut', 'detail', 'haha', 'hihi', 'semoga', 'rencananya', 'berhasil', 'dijalankan', 'terbuka']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['menteri sehat', 'runut', 'detail', 'haha', 'hihi', 'moga', 'rencana', 'hasil', 'jalan', 'buka']</t>
         </is>
       </c>
     </row>
@@ -2807,10 +3137,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15813</v>
+        <v>26682</v>
       </c>
       <c r="C67" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2824,17 +3154,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['pemula', 'dikopres', 'dengan', 'air', 'hangat', 'dan', 'minum', 'syirup', 'amoxicilin', 'dan', 'kalau', 'malam', 'mau', 'tidur', 'di', 'salep', 'sama', 'cendo', 'xitrol']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['newbie', 'dikopres', 'air', 'hangat', 'minum', 'syirup', 'amoxicilin', 'malam', 'tidur', 'salep', 'cendo', 'xitrol']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['newbie', 'dikopres', 'air', 'hangat', 'minum', 'syirup', 'amoxicilin', 'malam', 'tidur', 'salep', 'cendo', 'xitrol']</t>
+          <t>['pemula', 'dikopres', 'air', 'hangat', 'minum', 'syirup', 'amoxicilin', 'malam', 'tidur', 'salep', 'cendo', 'xitrol']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['mula', 'dikopres', 'air', 'hangat', 'minum', 'syirup', 'amoxicilin', 'malam', 'tidur', 'salep', 'cendo', 'xitrol']</t>
         </is>
       </c>
     </row>
@@ -2843,10 +3178,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15814</v>
+        <v>26683</v>
       </c>
       <c r="C68" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2860,17 +3195,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'semua', 'yang', 'sedang', 'berjuang', 'agar', 'dapurnya', 'tetap', 'ngepul', 'listriknya', 'tetap', 'nyala', 'dan', 'internetnya', 'punya', 'kuota', 'aku', 'doakan', 'semoga', 'lanca']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['sdg', 'berjuang', 'dapurnya', 'tetep', 'ngepul', 'listriknya', 'tetep', 'nyala', 'internetnya', 'kuota', 'doakan', 'semoga', 'lanca']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['sdg', 'juang', 'dapur', 'tetep', 'ngepul', 'listrik', 'tetep', 'nyala', 'internetnya', 'kuota', 'doa', 'moga', 'lanca']</t>
+          <t>['berjuang', 'dapurnya', 'ngepul', 'listriknya', 'nyala', 'internetnya', 'kuota', 'doakan', 'semoga', 'lanca']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['juang', 'dapur', 'ngepul', 'listrik', 'nyala', 'internetnya', 'kuota', 'doa', 'moga', 'lanca']</t>
         </is>
       </c>
     </row>
@@ -2879,10 +3219,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15815</v>
+        <v>26684</v>
       </c>
       <c r="C69" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2896,15 +3236,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['aku', 'done']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['done']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['done']</t>
         </is>
@@ -2915,10 +3260,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15816</v>
+        <v>26685</v>
       </c>
       <c r="C70" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2932,17 +3277,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'amir', 'entah', 'kenapa', 'soal', 'memakai', 'jilbab', 'di', 'keluargaku', 'agak', 'sedikit', 'longgar', 'ayah', 'bunda', 'tidak', 'pernah', 'sekalipun', 'memaksa', 'apalagi', 'dengan']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['amir', 'memakai', 'jilbab', 'keluargaku', 'longgar', 'ayah', 'bunda', 'memaksa', 'denga']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['amir', 'pakai', 'jilbab', 'keluarga', 'longgar', 'ayah', 'bunda', 'paksa', 'denga']</t>
+          <t>['amir', 'memakai', 'jilbab', 'keluargaku', 'longgar', 'ayah', 'bunda', 'memaksa']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['amir', 'pakai', 'jilbab', 'keluarga', 'longgar', 'ayah', 'bunda', 'paksa']</t>
         </is>
       </c>
     </row>
@@ -2951,10 +3301,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15817</v>
+        <v>26686</v>
       </c>
       <c r="C71" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2968,17 +3318,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['rt', 'mitos', 'atau', 'fakta', 'semakin', 'kita', 'sayang', 'sama', 'seseorang', 'semakin', 'kita', 'tidak', 'dihargai', 'dan', 'setelah', 'dia', 'kehilangan', 'baru', 'dia']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['mitos', 'fakta', 'sayang', 'sm', 'dihargai', 'kehilangan']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['mitos', 'fakta', 'sayang', 'sm', 'harga', 'hilang']</t>
+          <t>['mitos', 'fakta', 'sayang', 'dihargai', 'kehilangan']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['mitos', 'fakta', 'sayang', 'harga', 'hilang']</t>
         </is>
       </c>
     </row>
@@ -2987,10 +3342,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15818</v>
+        <v>26687</v>
       </c>
       <c r="C72" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
@@ -3000,15 +3355,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3019,10 +3379,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15819</v>
+        <v>26688</v>
       </c>
       <c r="C73" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
@@ -3032,15 +3392,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3051,10 +3416,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15820</v>
+        <v>26689</v>
       </c>
       <c r="C74" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3068,17 +3433,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['rt', 'alaidid', 'jangan', 'karena', 'pakai', 'label', 'ustaz', 'habib', 'kiai', 'dan, lain, lain', 'merasa', 'kebal', 'setiap', 'berhadapan', 'dengan', 'penegak', 'hukum', 'semua', 'warganegara', 'sama', 'ke']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['alaidid', 'pakai', 'label', 'ustadz', 'habib', 'kyai', 'dll', 'kebal', 'berhadapan', 'penegak', 'hukum', 'warganegara']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['alaidid', 'pakai', 'label', 'ustadz', 'habib', 'kyai', 'dll', 'kebal', 'hadap', 'tegak', 'hukum', 'warganegara']</t>
+          <t>['alaidid', 'pakai', 'label', 'ustaz', 'habib', 'kiai', 'dan, lain, lain', 'kebal', 'berhadapan', 'penegak', 'hukum', 'warganegara']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['alaidid', 'pakai', 'label', 'ustaz', 'habib', 'kiai', 'dan lain lain', 'kebal', 'hadap', 'tegak', 'hukum', 'warganegara']</t>
         </is>
       </c>
     </row>
@@ -3087,10 +3457,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15821</v>
+        <v>26690</v>
       </c>
       <c r="C75" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3104,17 +3474,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'mohon', 'bantu', 'retweet', 'agar', 'sampai', 'kepada', 'bapak', 'dan', 'bapak', 'saya', 'sangat', 'mohon', 'bantuannyasungguh', 'dengan', 'segala', 'kondisi']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['sy', 'mohon', 'bantu', 'retweet', 'smpe', 'bpk', 'bpk', 'sy', 'sngt', 'mohon', 'bantuannyasungguh', 'sgala', 'kondisi']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['sy', 'mohon', 'bantu', 'retweet', 'smpe', 'bpk', 'bpk', 'sy', 'sngt', 'mohon', 'bantuannyasungguh', 'sgala', 'kondisi']</t>
+          <t>['mohon', 'bantu', 'retweet', 'mohon', 'bantuannyasungguh', 'kondisi']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['mohon', 'bantu', 'retweet', 'mohon', 'bantuannyasungguh', 'kondisi']</t>
         </is>
       </c>
     </row>
@@ -3123,10 +3498,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15822</v>
+        <v>26691</v>
       </c>
       <c r="C76" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3140,15 +3515,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['rt', 'apa', 'beda', 'lelaki', 'pengangguran', 'dengan', 'lelaki', 'petamburan', 'ada', 'yang', 'tau']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['beda', 'lelaki', 'pengangguran', 'lelaki', 'petamburan']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['beda', 'lelaki', 'anggur', 'lelaki', 'tambur']</t>
         </is>
@@ -3159,10 +3539,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15823</v>
+        <v>26692</v>
       </c>
       <c r="C77" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3176,17 +3556,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['rt', 'dear', 'para', 'pendukung', 'fanatik', 'pak', 'jokowi', 'buzzer', 'atau', 'bukan', 'kalau', 'kalian', 'ingin', 'berkampanye', 'melawan', 'front, pembela, islam', 'lakukanlah', 'dengan', 'cara']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['dear', 'pendukung', 'fanatik', 'jokowi', 'buzzer', 'berkampanye', 'melawan', 'fpi', 'lakukanlah']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['dear', 'dukung', 'fanatik', 'jokowi', 'buzzer', 'kampanye', 'lawan', 'fpi', 'laku']</t>
+          <t>['dear', 'pendukung', 'fanatik', 'jokowi', 'buzzer', 'berkampanye', 'melawan', 'front, pembela, islam', 'lakukanlah']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['dear', 'dukung', 'fanatik', 'jokowi', 'buzzer', 'kampanye', 'lawan', 'front bela islam', 'laku']</t>
         </is>
       </c>
     </row>
@@ -3195,10 +3580,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15824</v>
+        <v>26693</v>
       </c>
       <c r="C78" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3212,17 +3597,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['rt', 'masih', 'ada', 'tidak', 'ya', 'stok', 'wanita', 'seperti', 'ini']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['nda', 'stok', 'wanita']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['nda', 'stok', 'wanita']</t>
+          <t>['stok', 'wanita']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['stok', 'wanita']</t>
         </is>
       </c>
     </row>
@@ -3231,10 +3621,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15825</v>
+        <v>26694</v>
       </c>
       <c r="C79" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3248,17 +3638,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'kh', 'nur', 'iskandar', 'kecerdasan, spiritual', 'singa', 'podium', 'pembela', 'aswaja']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['online', 'kh', 'noer', 'iskandar', 'sq', 'singa', 'podium', 'pembela', 'aswaja']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['online', 'kh', 'noer', 'iskandar', 'sq', 'singa', 'podium', 'bela', 'aswaja']</t>
+          <t>['online', 'kh', 'nur', 'iskandar', 'kecerdasan, spiritual', 'singa', 'podium', 'pembela', 'aswaja']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['online', 'kh', 'nur', 'iskandar', 'cerdas spiritual', 'singa', 'podium', 'bela', 'aswaja']</t>
         </is>
       </c>
     </row>
@@ -3267,10 +3662,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15826</v>
+        <v>26695</v>
       </c>
       <c r="C80" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3284,15 +3679,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'in', 'memoriam', 'kh', 'hanif', 'muslih', 'sosok', 'gigih', 'pembela', 'amaliah', 'nu']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['online', 'in', 'memoriam', 'kh', 'hanif', 'muslih', 'sosok', 'gigih', 'pembela', 'amaliah', 'nu']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['online', 'in', 'memoriam', 'kh', 'hanif', 'muslih', 'sosok', 'gigih', 'bela', 'amaliah', 'nu']</t>
         </is>
@@ -3303,10 +3703,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15827</v>
+        <v>26696</v>
       </c>
       <c r="C81" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3320,17 +3720,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['rt', 'nih', 'akun', 'ke', 'gara', 'melawan', 'sikadrun', 'kadal', 'gurun', 'akun', 'gue', 'hilang', 'lagi', 'bantu', 'follow', 'me', 'manteman']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['ni', 'akun', 'gara', 'melawan', 'sikadrun', 'kadal', 'gurun', 'akun', 'gw', 'ilang', 'bantu', 'follow', 'me', 'manteman']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['ni', 'akun', 'gara', 'lawan', 'sikadrun', 'kadal', 'gurun', 'akun', 'gw', 'ilang', 'bantu', 'follow', 'me', 'manteman']</t>
+          <t>['akun', 'gara', 'melawan', 'sikadrun', 'kadal', 'gurun', 'akun', 'gue', 'hilang', 'bantu', 'follow', 'me', 'manteman']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['akun', 'gara', 'lawan', 'sikadrun', 'kadal', 'gurun', 'akun', 'gue', 'hilang', 'bantu', 'follow', 'me', 'manteman']</t>
         </is>
       </c>
     </row>
@@ -3339,10 +3744,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15828</v>
+        <v>26697</v>
       </c>
       <c r="C82" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3356,15 +3761,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['utriza', 'qobiltu']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['utriza', 'qobiltu']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['utriza', 'qobiltu']</t>
         </is>
@@ -3375,10 +3785,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15829</v>
+        <v>26698</v>
       </c>
       <c r="C83" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3392,17 +3802,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['rt', 'muis', 'assalamualaikum', 'sobat', 'twitter', 'bila', 'ada', 'diantara', 'teman', 'yang', 'butuh', 'jasa', 'arsitek', 'bisa', 'hubungi', 'saya', 'sudah', 'bulan', 'ini', 'jobless', 'amp', 'ta']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['muis', 'assalamualaikum', 'sobat', 'twitter', 'teman', 'butuh', 'jasa', 'arsitek', 'bs', 'hubungi', 'jobless', 'ta']</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['mu', 'assalamualaikum', 'sobat', 'twitter', 'teman', 'butuh', 'jasa', 'arsitek', 'bs', 'hubung', 'jobless', 'ta']</t>
+          <t>['muis', 'assalamualaikum', 'sobat', 'twitter', 'teman', 'butuh', 'jasa', 'arsitek', 'hubungi', 'jobless', 'ta']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['mu', 'assalamualaikum', 'sobat', 'twitter', 'teman', 'butuh', 'jasa', 'arsitek', 'hubung', 'jobless', 'ta']</t>
         </is>
       </c>
     </row>
@@ -3411,10 +3826,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15830</v>
+        <v>26699</v>
       </c>
       <c r="C84" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3428,15 +3843,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['rt', 'dirs', 'jangan', 'tunggu', 'tiba', 'pada', 'satu', 'titik', 'semuanya', 'tidak', 'lagi', 'bisa', 'dikendalikan', 'tak', 'lagi', 'bisa', 'diatasi', 'dan', 'tak', 'ada', 'lagi', 'yang', 'peduli']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['dirs', 'tunggu', 'titik', 'dikendalikan', 'diatasi', 'peduli']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['dirs', 'tunggu', 'titik', 'kendali', 'atas', 'peduli']</t>
         </is>
@@ -3447,10 +3867,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15831</v>
+        <v>26700</v>
       </c>
       <c r="C85" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3464,17 +3884,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['amin', 'ya', 'allah']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['amiin', 'robb']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['amiin', 'robb']</t>
+          <t>['amin', 'allah']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['amin', 'allah']</t>
         </is>
       </c>
     </row>
@@ -3483,10 +3908,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15832</v>
+        <v>26701</v>
       </c>
       <c r="C86" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3500,17 +3925,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['rt', 'saya', 'orang', 'islam', 'dan', 'secara', 'moral', 'saya', 'ikut', 'bertanggung', 'jawab', 'atas', 'tindakan', 'teroris', 'di', 'sigi', 'jelas', 'teroris', 'itu', 'beragama', 'isl']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['org', 'islam', 'moral', 'bertanggung', 'tindakan', 'teroris', 'sigi', 'teroris', 'beragama', 'isl']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['org', 'islam', 'moral', 'tanggung', 'tindak', 'teroris', 'sigi', 'teroris', 'agama', 'isl']</t>
+          <t>['orang', 'islam', 'moral', 'bertanggung', 'tindakan', 'teroris', 'sigi', 'teroris', 'beragama', 'isl']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['orang', 'islam', 'moral', 'tanggung', 'tindak', 'teroris', 'sigi', 'teroris', 'agama', 'isl']</t>
         </is>
       </c>
     </row>
@@ -3519,10 +3949,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15833</v>
+        <v>26702</v>
       </c>
       <c r="C87" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3536,17 +3966,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'kh', 'miftachul', 'akhyar', 'terpilih', 'menjadi', 'ketua', 'umum', 'majelis, ulama, indonesia', 'pusat']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['online', 'kh', 'miftachul', 'akhyar', 'terpilih', 'ketua', 'mui', 'pusat']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['online', 'kh', 'miftachul', 'akhyar', 'pilih', 'ketua', 'mui', 'pusat']</t>
+          <t>['online', 'kh', 'miftachul', 'akhyar', 'terpilih', 'ketua', 'majelis, ulama, indonesia', 'pusat']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['online', 'kh', 'miftachul', 'akhyar', 'pilih', 'ketua', 'majelis ulama indonesia', 'pusat']</t>
         </is>
       </c>
     </row>
@@ -3555,10 +3990,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15834</v>
+        <v>26703</v>
       </c>
       <c r="C88" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3572,17 +4007,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['rt', 'zeebo', 'selamat', 'atas', 'terpilihnya', 'kh', 'miftachul', 'akhyar', 'sebagai', 'ketua', 'umum', 'majelis, ulama, indonesia', 'periode', 'semoga', 'pak', 'kiai', 'mampu', 'melakukan']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['zeebo', 'selamat', 'terpilihnya', 'kh', 'miftachul', 'akhyar', 'ketua', 'mui', 'periode', 'semoga', 'kyai']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['zeebo', 'selamat', 'pilih', 'kh', 'miftachul', 'akhyar', 'ketua', 'mui', 'periode', 'moga', 'kyai']</t>
+          <t>['zeebo', 'selamat', 'terpilihnya', 'kh', 'miftachul', 'akhyar', 'ketua', 'majelis, ulama, indonesia', 'periode', 'semoga', 'kiai']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['zeebo', 'selamat', 'pilih', 'kh', 'miftachul', 'akhyar', 'ketua', 'majelis ulama indonesia', 'periode', 'moga', 'kiai']</t>
         </is>
       </c>
     </row>
@@ -3591,10 +4031,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15835</v>
+        <v>26704</v>
       </c>
       <c r="C89" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3608,15 +4048,20 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['utriza', 'qobiltu']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>['utriza', 'qobiltu']</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>['utriza', 'qobiltu']</t>
         </is>
@@ -3627,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15836</v>
+        <v>26705</v>
       </c>
       <c r="C90" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3644,17 +4089,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['rt', 'adab', 'lebih', 'penting', 'daripada', 'ilmu', 'iya', 'tidak', 'cok']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['adab', 'lbih', 'drpd', 'ilmu', 'yo', 'ora', 'cok']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['adab', 'lbih', 'drpd', 'ilmu', 'yo', 'ora', 'cok']</t>
+          <t>['adab', 'ilmu', 'iya', 'cok']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['adab', 'ilmu', 'iya', 'cok']</t>
         </is>
       </c>
     </row>
@@ -3663,10 +4113,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15837</v>
+        <v>26706</v>
       </c>
       <c r="C91" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3680,17 +4130,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['dirs', 'ikut', 'bagikan', 'gushehe']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>['dirs', 'share', 'gushehe']</t>
-        </is>
-      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['dirs', 'share', 'gushehe']</t>
+          <t>['dirs', 'bagikan', 'gushehe']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['dirs', 'bagi', 'gushehe']</t>
         </is>
       </c>
     </row>
@@ -3699,10 +4154,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15838</v>
+        <v>26707</v>
       </c>
       <c r="C92" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3716,15 +4171,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'online', 'innalillahi', 'mustasyarpcnu', 'banyumaskh', 'zaeni', 'ilyas', 'tutup', 'usia']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>['online', 'innalillahi', 'mustasyarpcnu', 'banyumaskh', 'zaeni', 'ilyas', 'tutup', 'usia']</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>['online', 'innalillahi', 'mustasyarpcnu', 'banyumaskh', 'zaeni', 'ilyas', 'tutup', 'usia']</t>
         </is>
@@ -3735,10 +4195,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15839</v>
+        <v>26708</v>
       </c>
       <c r="C93" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3752,17 +4212,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['rt', 'kamu', 'merasa', 'masalahmu', 'adalah', 'ujian', 'terberat', 'mungkin', 'kamu', 'belum', 'pernah', 'membaca', 'atau', 'mendengar', 'cerita', 'perjalanan', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>['kau', 'masalahmu', 'ujian', 'terberat', 'kau', 'membaca', 'mendengar', 'cerita', 'perjalanan', 'rasulullah']</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['kau', 'masalah', 'uji', 'berat', 'kau', 'baca', 'dengar', 'cerita', 'jalan', 'rasulullah']</t>
+          <t>['masalahmu', 'ujian', 'terberat', 'membaca', 'mendengar', 'cerita', 'perjalanan', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['masalah', 'uji', 'berat', 'baca', 'dengar', 'cerita', 'jalan', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -3771,10 +4236,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15840</v>
+        <v>26709</v>
       </c>
       <c r="C94" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3788,17 +4253,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['rt', 'habib', 'rizieq', 'itu', 'pimpinan', 'organisasi, masyarakat', 'bukan', 'imam', 'besar', 'umat', 'islam']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['habib', 'rizieq', 'pimpinan', 'ormas', 'imam', 'umat', 'islam']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['habib', 'rizieq', 'pimpin', 'ormas', 'imam', 'umat', 'islam']</t>
+          <t>['habib', 'rizieq', 'pimpinan', 'organisasi, masyarakat', 'imam', 'umat', 'islam']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['habib', 'rizieq', 'pimpin', 'organisasi masyarakat', 'imam', 'umat', 'islam']</t>
         </is>
       </c>
     </row>
@@ -3807,10 +4277,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15841</v>
+        <v>26710</v>
       </c>
       <c r="C95" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3824,15 +4294,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['rt', 'jusuf', 'kalla', 'mereka', 'massa', 'pendukung', 'rizieq', 'berkumpul', 'tapi', 'tidak', 'berbuat', 'kekerasan', 'mereka', 'tidak', 'merusak', 'membakar', 'berbu']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['jusuf', 'kalla', 'massa', 'pendukung', 'rizieq', 'berkumpul', 'berbuat', 'kekerasan', 'merusak', 'membakar', 'berbu']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['jusuf', 'kalla', 'massa', 'dukung', 'rizieq', 'kumpul', 'buat', 'keras', 'rusak', 'bakar', 'berbu']</t>
         </is>
@@ -3843,10 +4318,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15842</v>
+        <v>26711</v>
       </c>
       <c r="C96" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3860,15 +4335,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['budalkan']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['budalkan']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['budalkan']</t>
         </is>
@@ -3879,10 +4359,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15843</v>
+        <v>26712</v>
       </c>
       <c r="C97" t="n">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3896,89 +4376,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'zeebo', 'perjuangan', 'hati', 'tidak', 'lebih', 'dari', 'dorongan', 'nafsu', 'belaka', 'diperkuat', 'dengan', 'perilaku', 'kader', 'hati', 'yang', 'tidak', 'mengindahkan', 'adab', 'aku']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['zeebo', 'perjuangan', 'hti', 'dorongan', 'nafsu', 'belaka', 'diperkuat', 'perilaku', 'kader', 'hti', 'mengindahkan', 'adab', 'ak']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['zeebo', 'juang', 'hti', 'dorong', 'nafsu', 'belaka', 'kuat', 'perilaku', 'kader', 'hti', 'indah', 'adab', 'ak']</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>15844</v>
-      </c>
-      <c r="C98" t="n">
-        <v>199</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>rt zeebo ustad dasad latif tabligh akbar itu hukumnya bukan wajib syari maka harus dibubarkan ditiadakan tidak boleh diselen</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>['rt', 'zeebo', 'ustad', 'dasad', 'latif', 'tabligh', 'akbar', 'itu', 'hukumnya', 'bukan', 'wajib', 'syari', 'maka', 'harus', 'dibubarkan', 'ditiadakan', 'tidak', 'boleh', 'diselen']</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['zeebo', 'ustad', 'dasad', 'latif', 'tabligh', 'akbar', 'hukumnya', 'wajib', 'syari', 'dibubarkan', 'ditiadakan', 'diselen']</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>['zeebo', 'ustad', 'dasad', 'latif', 'tabligh', 'akbar', 'hukum', 'wajib', 'syar', 'bubar', 'tiada', 'diselen']</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>15845</v>
-      </c>
-      <c r="C99" t="n">
-        <v>199</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>heheheheemakjlen</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>['heheheheemakjlen']</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['heheheheemakjlen']</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>['heheheheemakjlen']</t>
+          <t>['zeebo', 'perjuangan', 'hati', 'dorongan', 'nafsu', 'belaka', 'diperkuat', 'perilaku', 'kader', 'hati', 'mengindahkan', 'adab']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['zeebo', 'juang', 'hati', 'dorong', 'nafsu', 'belaka', 'kuat', 'perilaku', 'kader', 'hati', 'indah', 'adab']</t>
         </is>
       </c>
     </row>
